--- a/Data/Revenue-gross margin-gross profit worldwide 2015-2020.xlsx
+++ b/Data/Revenue-gross margin-gross profit worldwide 2015-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lien\Documents\Unief 2\1e Master\Business intelligence\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BC4C0A-FAA7-43C3-B598-609C841D2AB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6D36A0-D60B-4C9E-9AB7-437ED8A3A1C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{E92E3238-1F9C-4DC5-BA0A-6CCF2735C283}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{E92E3238-1F9C-4DC5-BA0A-6CCF2735C283}"/>
   </bookViews>
   <sheets>
     <sheet name="Revenues (automotive)" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +102,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,7 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -149,6 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="1" xr:uid="{9DCD26F1-8B06-4D22-8A30-9211EC8BCBB1}"/>
@@ -466,13 +473,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70079CBE-3D93-4F84-A246-21BB95383EEC}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -497,11 +505,11 @@
         <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>89332</v>
+        <v>893320000</v>
       </c>
       <c r="D2" s="1">
         <f>C2/1000</f>
-        <v>89.331999999999994</v>
+        <v>893320</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -512,11 +520,11 @@
         <v>8</v>
       </c>
       <c r="C3" s="2">
+        <v>87809000</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D24" si="0">C3/1000</f>
         <v>87809</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D25" si="0">C3/1000</f>
-        <v>87.808999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -527,11 +535,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="1">
+        <v>852555000</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
         <v>852555</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>852.55499999999995</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -542,11 +550,11 @@
         <v>10</v>
       </c>
       <c r="C5" s="3">
+        <v>1117007000</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
         <v>1117007</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>1117.0070000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -557,11 +565,11 @@
         <v>7</v>
       </c>
       <c r="C6" s="3">
+        <v>1026064000</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
         <v>1026064</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>1026.0640000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -572,11 +580,11 @@
         <v>8</v>
       </c>
       <c r="C7" s="3">
+        <v>1181852000</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
         <v>1181852</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>1181.8520000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -587,11 +595,11 @@
         <v>9</v>
       </c>
       <c r="C8" s="3">
+        <v>2148727000</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
         <v>2148727</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>2148.7269999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -602,11 +610,11 @@
         <v>10</v>
       </c>
       <c r="C9" s="4">
+        <v>1994123000</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
         <v>1994123</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>1994.123</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -617,11 +625,11 @@
         <v>7</v>
       </c>
       <c r="C10" s="3">
+        <v>2289600000</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
         <v>2289600</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>2289.6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -632,11 +640,11 @@
         <v>8</v>
       </c>
       <c r="C11" s="3">
+        <v>2286616000</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
         <v>2286616</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>2286.616</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -647,11 +655,11 @@
         <v>9</v>
       </c>
       <c r="C12" s="5">
+        <v>2362889000</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
         <v>2362889</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>2362.8890000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -662,11 +670,11 @@
         <v>10</v>
       </c>
       <c r="C13" s="3">
+        <v>2702195000</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
         <v>2702195</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>2702.1950000000002</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -677,11 +685,11 @@
         <v>7</v>
       </c>
       <c r="C14" s="3">
+        <v>2735317000</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
         <v>2735317</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>2735.317</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -692,11 +700,11 @@
         <v>8</v>
       </c>
       <c r="C15" s="3">
+        <v>3357681000</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
         <v>3357681</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>3357.681</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -707,11 +715,11 @@
         <v>9</v>
       </c>
       <c r="C16" s="3">
+        <v>6098766000</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
         <v>6098766</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>6098.7659999999996</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -722,11 +730,11 @@
         <v>10</v>
       </c>
       <c r="C17" s="3">
+        <v>6323219000</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
         <v>6323219</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>6323.2190000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -737,11 +745,11 @@
         <v>7</v>
       </c>
       <c r="C18" s="3">
+        <v>3723861000</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
         <v>3723861</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>3723.8609999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -752,11 +760,11 @@
         <v>8</v>
       </c>
       <c r="C19" s="3">
+        <v>5376389000</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
         <v>5376389</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>5376.3890000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -767,11 +775,11 @@
         <v>9</v>
       </c>
       <c r="C20" s="3">
+        <v>5353000000</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
         <v>5353000</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>5353</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -782,11 +790,11 @@
         <v>10</v>
       </c>
       <c r="C21" s="3">
+        <v>6323000000</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
         <v>6323000</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>6323</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -797,11 +805,11 @@
         <v>7</v>
       </c>
       <c r="C22" s="3">
+        <v>5132000000</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
         <v>5132000</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>5132</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -812,11 +820,11 @@
         <v>8</v>
       </c>
       <c r="C23" s="3">
+        <v>5179000000</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
         <v>5179000</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>5179</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -827,11 +835,11 @@
         <v>9</v>
       </c>
       <c r="C24" s="3">
+        <v>7611000000</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
         <v>7611000</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>7611</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -853,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC6168E-27E5-47C2-9723-ECD181686574}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1217,7 +1225,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1252,13 +1260,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>260073</v>
+        <v>260073000</v>
       </c>
       <c r="D2">
-        <v>46396</v>
+        <v>46396000</v>
       </c>
       <c r="E2">
-        <v>311070</v>
+        <v>311070000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1269,13 +1277,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>213370</v>
+        <v>213370000</v>
       </c>
       <c r="D3">
-        <v>61907</v>
+        <v>61907000</v>
       </c>
       <c r="E3">
-        <v>280097</v>
+        <v>280097000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1286,13 +1294,13 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>231496</v>
+        <v>231496000</v>
       </c>
       <c r="D4">
-        <v>77022</v>
+        <v>223826000</v>
       </c>
       <c r="E4">
-        <v>312346</v>
+        <v>189060000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1303,13 +1311,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>218564</v>
+        <v>218564000</v>
       </c>
       <c r="D5">
-        <v>124190</v>
+        <v>124190000</v>
       </c>
       <c r="E5">
-        <v>348748</v>
+        <v>348748000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1320,13 +1328,13 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>252468</v>
+        <v>252468000</v>
       </c>
       <c r="D6">
-        <v>88458</v>
+        <v>88458000</v>
       </c>
       <c r="E6">
-        <v>347329</v>
+        <v>347329000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1337,13 +1345,13 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>274776</v>
-      </c>
-      <c r="D7">
-        <v>272570</v>
+        <v>274776000</v>
+      </c>
+      <c r="D7" s="8">
+        <v>272570000</v>
       </c>
       <c r="E7">
-        <v>279001</v>
+        <v>279001000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1354,13 +1362,13 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>636735</v>
+        <v>636735000</v>
       </c>
       <c r="D8">
-        <v>631666</v>
+        <v>631666000</v>
       </c>
       <c r="E8">
-        <v>502064</v>
+        <v>502064000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1371,13 +1379,13 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>435278</v>
+        <v>435278000</v>
       </c>
       <c r="D9">
-        <v>449701</v>
+        <v>449701000</v>
       </c>
       <c r="E9">
-        <v>438423</v>
+        <v>438423000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1388,13 +1396,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>667946</v>
+        <v>667946000</v>
       </c>
       <c r="D10">
-        <v>626925</v>
+        <v>626925000</v>
       </c>
       <c r="E10">
-        <v>636956</v>
+        <v>636956000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1405,13 +1413,13 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>666615</v>
+        <v>666615000</v>
       </c>
       <c r="D11">
-        <v>638605</v>
+        <v>638605000</v>
       </c>
       <c r="E11">
-        <v>546071</v>
+        <v>546071000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1422,13 +1430,13 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>449140</v>
+        <v>449140000</v>
       </c>
       <c r="D12">
-        <v>432043</v>
+        <v>432043000</v>
       </c>
       <c r="E12">
-        <v>441634</v>
+        <v>441634000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1439,13 +1447,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>438786</v>
+        <v>438786000</v>
       </c>
       <c r="D13">
-        <v>511023</v>
+        <v>511023000</v>
       </c>
       <c r="E13">
-        <v>348063</v>
+        <v>348063000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1456,13 +1464,13 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>456526</v>
+        <v>456526000</v>
       </c>
       <c r="D14">
-        <v>539424</v>
+        <v>539424000</v>
       </c>
       <c r="E14">
-        <v>504188</v>
+        <v>504188000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1473,13 +1481,13 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>618930</v>
+        <v>618930000</v>
       </c>
       <c r="D15">
-        <v>691027</v>
+        <v>691027000</v>
       </c>
       <c r="E15">
-        <v>704225</v>
+        <v>704225000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1490,13 +1498,13 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>1523665</v>
+        <v>1523665000</v>
       </c>
       <c r="D16">
-        <v>1573564</v>
+        <v>1573564000</v>
       </c>
       <c r="E16">
-        <v>1542250</v>
+        <v>1542250000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1507,13 +1515,13 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>1442900</v>
+        <v>1442900000</v>
       </c>
       <c r="D17">
-        <v>1536971</v>
+        <v>1536971000</v>
       </c>
       <c r="E17">
-        <v>1558769</v>
+        <v>1558769000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1524,13 +1532,13 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>565743</v>
+        <v>565743000</v>
       </c>
       <c r="D18">
-        <v>750560</v>
+        <v>750560000</v>
       </c>
       <c r="E18">
-        <v>751708</v>
+        <v>751708000</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1541,10 +1549,10 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>921046</v>
+        <v>921046000</v>
       </c>
       <c r="D19">
-        <v>1016304</v>
+        <v>1016304000</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1555,10 +1563,10 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>1191000</v>
+        <v>1191000000</v>
       </c>
       <c r="D20">
-        <v>1222000</v>
+        <v>1222000000</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1569,10 +1577,10 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>1391000</v>
+        <v>1391000000</v>
       </c>
       <c r="D21">
-        <v>1434000</v>
+        <v>1434000000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1583,10 +1591,10 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>1234000</v>
+        <v>1234000000</v>
       </c>
       <c r="D22">
-        <v>1311000</v>
+        <v>1311000000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1597,10 +1605,10 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>1267000</v>
+        <v>1267000000</v>
       </c>
       <c r="D23">
-        <v>1317000</v>
+        <v>1317000000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1611,10 +1619,10 @@
         <v>9</v>
       </c>
       <c r="C24">
-        <v>2063000</v>
+        <v>2063000000</v>
       </c>
       <c r="D24">
-        <v>2105000</v>
+        <v>2105000000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1627,5 +1635,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Revenue-gross margin-gross profit worldwide 2015-2020.xlsx
+++ b/Data/Revenue-gross margin-gross profit worldwide 2015-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lien\Documents\Unief 2\1e Master\Business intelligence\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lien\Documents\Unief 2\1e Master\Business intelligence\Project\BUSIN\Dashboard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6D36A0-D60B-4C9E-9AB7-437ED8A3A1C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864DD911-88CA-4178-B20D-51E03B83C23F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{E92E3238-1F9C-4DC5-BA0A-6CCF2735C283}"/>
+    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="8964" xr2:uid="{E92E3238-1F9C-4DC5-BA0A-6CCF2735C283}"/>
   </bookViews>
   <sheets>
     <sheet name="Revenues (automotive)" sheetId="1" r:id="rId1"/>
@@ -37,19 +37,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="13">
   <si>
-    <t>Automotive Revenues Tesla</t>
-  </si>
-  <si>
-    <t>Gross profit</t>
-  </si>
-  <si>
-    <t>Automotive gross profit GAAP</t>
-  </si>
-  <si>
     <t>Automotive gross profit non-GAAP</t>
-  </si>
-  <si>
-    <t>Gross margin Automotive GAAP</t>
   </si>
   <si>
     <t>Gross margin Automotive non-GAAP</t>
@@ -74,6 +62,18 @@
   </si>
   <si>
     <t>1000_revenue</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Gross profit totaal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Revenue</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,16 +485,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -502,7 +502,7 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>893320000</v>
@@ -517,7 +517,7 @@
         <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
         <v>87809000</v>
@@ -532,7 +532,7 @@
         <v>2015</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>852555000</v>
@@ -547,7 +547,7 @@
         <v>2015</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3">
         <v>1117007000</v>
@@ -562,7 +562,7 @@
         <v>2016</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3">
         <v>1026064000</v>
@@ -577,7 +577,7 @@
         <v>2016</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
         <v>1181852000</v>
@@ -592,7 +592,7 @@
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3">
         <v>2148727000</v>
@@ -607,7 +607,7 @@
         <v>2016</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4">
         <v>1994123000</v>
@@ -622,7 +622,7 @@
         <v>2017</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3">
         <v>2289600000</v>
@@ -637,7 +637,7 @@
         <v>2017</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3">
         <v>2286616000</v>
@@ -652,7 +652,7 @@
         <v>2017</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12" s="5">
         <v>2362889000</v>
@@ -667,7 +667,7 @@
         <v>2017</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3">
         <v>2702195000</v>
@@ -682,7 +682,7 @@
         <v>2018</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C14" s="3">
         <v>2735317000</v>
@@ -697,7 +697,7 @@
         <v>2018</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3">
         <v>3357681000</v>
@@ -712,7 +712,7 @@
         <v>2018</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3">
         <v>6098766000</v>
@@ -727,7 +727,7 @@
         <v>2018</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3">
         <v>6323219000</v>
@@ -742,7 +742,7 @@
         <v>2019</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
         <v>3723861000</v>
@@ -757,7 +757,7 @@
         <v>2019</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3">
         <v>5376389000</v>
@@ -772,7 +772,7 @@
         <v>2019</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3">
         <v>5353000000</v>
@@ -787,7 +787,7 @@
         <v>2019</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
         <v>6323000000</v>
@@ -802,7 +802,7 @@
         <v>2020</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3">
         <v>5132000000</v>
@@ -817,7 +817,7 @@
         <v>2020</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3">
         <v>5179000000</v>
@@ -832,7 +832,7 @@
         <v>2020</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3">
         <v>7611000000</v>
@@ -847,7 +847,7 @@
         <v>2020</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC6168E-27E5-47C2-9723-ECD181686574}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -873,16 +873,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -890,7 +890,7 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>25</v>
@@ -904,7 +904,7 @@
         <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>22.9</v>
@@ -918,7 +918,7 @@
         <v>2015</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>22.8</v>
@@ -932,7 +932,7 @@
         <v>2015</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>19.2</v>
@@ -946,7 +946,7 @@
         <v>2016</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -960,7 +960,7 @@
         <v>2016</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>23.1</v>
@@ -974,7 +974,7 @@
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>29.4</v>
@@ -988,7 +988,7 @@
         <v>2016</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>22.6</v>
@@ -1002,7 +1002,7 @@
         <v>2017</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>27.4</v>
@@ -1016,7 +1016,7 @@
         <v>2017</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>27.9</v>
@@ -1030,7 +1030,7 @@
         <v>2017</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>18.3</v>
@@ -1044,7 +1044,7 @@
         <v>2017</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>18.899999999999999</v>
@@ -1058,7 +1058,7 @@
         <v>2018</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>19.7</v>
@@ -1072,7 +1072,7 @@
         <v>2018</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>20.6</v>
@@ -1086,7 +1086,7 @@
         <v>2018</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>25.8</v>
@@ -1100,7 +1100,7 @@
         <v>2018</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>24.3</v>
@@ -1114,7 +1114,7 @@
         <v>2019</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>20.2</v>
@@ -1128,7 +1128,7 @@
         <v>2019</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>18.899999999999999</v>
@@ -1142,7 +1142,7 @@
         <v>2019</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>22.8</v>
@@ -1156,7 +1156,7 @@
         <v>2019</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>22.5</v>
@@ -1170,7 +1170,7 @@
         <v>2020</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>25.5</v>
@@ -1184,7 +1184,7 @@
         <v>2020</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>25.4</v>
@@ -1198,7 +1198,7 @@
         <v>2020</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>27.7</v>
@@ -1212,7 +1212,7 @@
         <v>2020</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1237,19 +1237,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1257,7 +1257,7 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>260073000</v>
@@ -1274,7 +1274,7 @@
         <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>213370000</v>
@@ -1291,7 +1291,7 @@
         <v>2015</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>231496000</v>
@@ -1308,7 +1308,7 @@
         <v>2015</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>218564000</v>
@@ -1325,7 +1325,7 @@
         <v>2016</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>252468000</v>
@@ -1342,7 +1342,7 @@
         <v>2016</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>274776000</v>
@@ -1359,7 +1359,7 @@
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>636735000</v>
@@ -1376,7 +1376,7 @@
         <v>2016</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>435278000</v>
@@ -1393,7 +1393,7 @@
         <v>2017</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>667946000</v>
@@ -1410,7 +1410,7 @@
         <v>2017</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>666615000</v>
@@ -1427,7 +1427,7 @@
         <v>2017</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>449140000</v>
@@ -1444,7 +1444,7 @@
         <v>2017</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>438786000</v>
@@ -1461,7 +1461,7 @@
         <v>2018</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>456526000</v>
@@ -1478,7 +1478,7 @@
         <v>2018</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>618930000</v>
@@ -1495,7 +1495,7 @@
         <v>2018</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>1523665000</v>
@@ -1512,7 +1512,7 @@
         <v>2018</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>1442900000</v>
@@ -1529,7 +1529,7 @@
         <v>2019</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>565743000</v>
@@ -1546,7 +1546,7 @@
         <v>2019</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>921046000</v>
@@ -1560,7 +1560,7 @@
         <v>2019</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>1191000000</v>
@@ -1574,7 +1574,7 @@
         <v>2019</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>1391000000</v>
@@ -1588,7 +1588,7 @@
         <v>2020</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>1234000000</v>
@@ -1602,7 +1602,7 @@
         <v>2020</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>1267000000</v>
@@ -1616,7 +1616,7 @@
         <v>2020</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>2063000000</v>
@@ -1630,7 +1630,7 @@
         <v>2020</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
